--- a/testing/CEDEtoFile_Manual_LocationFile_ForTestingReference.xlsx
+++ b/testing/CEDEtoFile_Manual_LocationFile_ForTestingReference.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Subhashis Barik\Xceedance\Validating CAT Models\Model Evaluation Tool\Oasis_Modex\AIR-OED\Noida\Final Files\CEDE_To_File\ToShivam_CEDEtoFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Subhashis Barik\Xceedance\Validating CAT Models\Model Evaluation Tool\Oasis_Modex\AIR-OED\Noida\Final Files\CEDE_To_File\ToShivam_CEDEtoFile\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33137B02-32E7-468B-AA4B-683BA72258B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601CF2A8-5E10-46A8-B6E6-7F122EBB08F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-=VLOOKUP(G4,$I$4:$O$51,2,0)</t>
+=VLOOKUP(F4,$R$4:$S$51,2,0)</t>
         </r>
       </text>
     </comment>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="801">
   <si>
     <t>ProducerName</t>
   </si>
@@ -2626,6 +2626,48 @@
   </si>
   <si>
     <t>WSS;QEQ;QFF;OO1;QLS;BFR;QSL;XX1;WW2;MM1;QTS;BBF;ZZ1</t>
+  </si>
+  <si>
+    <t>Field AJ should match between Manual File and Tool Output</t>
+  </si>
+  <si>
+    <t>Field AL should match between Manual File and Tool Output</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t># of Columns in OED file should be 205 including FlexLocZZZ</t>
+  </si>
+  <si>
+    <t>B - Sum TIV should match (Column Wise data entry)</t>
+  </si>
+  <si>
+    <t>B - Sum TIV should match (Row Wise data entry)</t>
+  </si>
+  <si>
+    <t>C - mapped Occupancies should be correct</t>
+  </si>
+  <si>
+    <t>D - mapped onstructions should be correct</t>
+  </si>
+  <si>
+    <t>E - All OED Secondary modifiers should represent in OED file</t>
+  </si>
+  <si>
+    <t>F - All Finanacial  Conditions should represent in OED File</t>
+  </si>
+  <si>
+    <t>Field FA to GW have look up values from CEDE. All values should match OED files</t>
+  </si>
+  <si>
+    <t>G - All Account/Policy reporting fields represented in OED Files</t>
+  </si>
+  <si>
+    <t>A - # of Records should match tLocation</t>
+  </si>
+  <si>
+    <t>Refer Simplitium sample OED Location File</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2678,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2744,6 +2786,15 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3254,7 +3305,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3624,6 +3675,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4162,18 +4226,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6091D0-4BE6-42A8-B0C8-690FCDBADD51}">
-  <dimension ref="A2:GW27"/>
+  <dimension ref="A2:GW38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
@@ -21116,6 +21180,102 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:205" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="135" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:205" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B30" s="6">
+        <f>COUNTA(A3:GW3)</f>
+        <v>205</v>
+      </c>
+      <c r="C30" s="139" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:205" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B31" s="1" t="b">
+        <f>COUNT(OED_LocFile!B4:B27)=COUNT(tLocTerm!A2:A25)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:205" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B32" s="1" t="b">
+        <f>SUM(OED_LocFile!BA4:BD15)/4=SUM(tLocation!G3:J5)</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B33" s="1" t="b">
+        <f>SUM(BA16:BD27)=SUM(tLocation!G6:J17)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B36" s="6">
+        <f>COUNTA(A3:GW3)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B38" s="6">
+        <f>COUNTA(A3:GW3)</f>
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -23746,9 +23906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD8B1FE-55A2-4A24-AAC9-E697891FC439}">
   <dimension ref="A1:BT17"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="AU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27160,7 +27320,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35686,11 +35846,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EBC2A4-CC1F-4410-B31A-197D98A7254A}">
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35710,22 +35870,23 @@
     <col min="16" max="16" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>703</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="140" t="s">
         <v>702</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -35745,8 +35906,10 @@
       <c r="R1" s="6" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="2" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="6"/>
+      <c r="T1" s="136"/>
+    </row>
+    <row r="2" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>696</v>
       </c>
@@ -35756,7 +35919,7 @@
       <c r="F2" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="J2" s="135"/>
+      <c r="J2" s="140"/>
       <c r="L2" s="6" t="s">
         <v>694</v>
       </c>
@@ -35774,8 +35937,10 @@
       <c r="R2" s="6" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="6"/>
+      <c r="T2" s="136"/>
+    </row>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>260</v>
       </c>
@@ -35825,26 +35990,30 @@
       <c r="R3" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>244</v>
       </c>
+      <c r="T3" s="136"/>
       <c r="U3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="104">
         <v>1</v>
       </c>
@@ -35896,26 +36065,29 @@
       <c r="R4" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="T4" s="116">
-        <v>1</v>
-      </c>
-      <c r="U4" s="117">
+      <c r="S4" s="10">
+        <v>6</v>
+      </c>
+      <c r="U4" s="116">
         <v>1</v>
       </c>
       <c r="V4" s="117">
         <v>1</v>
       </c>
       <c r="W4" s="117">
+        <v>1</v>
+      </c>
+      <c r="X4" s="117">
         <v>65634</v>
       </c>
-      <c r="X4" s="117" t="s">
+      <c r="Y4" s="117" t="s">
         <v>258</v>
       </c>
-      <c r="Y4" s="118" t="s">
+      <c r="Z4" s="118" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -35967,26 +36139,29 @@
       <c r="R5" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="T5" s="119">
+      <c r="S5" s="10">
+        <v>13</v>
+      </c>
+      <c r="U5" s="119">
         <v>2</v>
       </c>
-      <c r="U5" s="120">
-        <v>1</v>
-      </c>
       <c r="V5" s="120">
         <v>1</v>
       </c>
       <c r="W5" s="120">
+        <v>1</v>
+      </c>
+      <c r="X5" s="120">
         <v>2048</v>
       </c>
-      <c r="X5" s="120" t="s">
+      <c r="Y5" s="120" t="s">
         <v>418</v>
       </c>
-      <c r="Y5" s="121" t="s">
+      <c r="Z5" s="121" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="100">
         <v>1</v>
       </c>
@@ -36038,26 +36213,29 @@
       <c r="R6" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="T6" s="4">
+      <c r="S6" s="10">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
         <v>3</v>
       </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
       <c r="V6" s="4">
         <v>1</v>
       </c>
       <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
         <v>2048</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="70">
         <v>1</v>
       </c>
@@ -36109,26 +36287,29 @@
       <c r="R7" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="T7" s="101">
+      <c r="S7" s="10">
+        <v>11</v>
+      </c>
+      <c r="U7" s="101">
         <v>4</v>
       </c>
-      <c r="U7" s="103">
-        <v>1</v>
-      </c>
       <c r="V7" s="103">
         <v>1</v>
       </c>
       <c r="W7" s="103">
+        <v>1</v>
+      </c>
+      <c r="X7" s="103">
         <v>4369</v>
       </c>
-      <c r="X7" s="103" t="s">
+      <c r="Y7" s="103" t="s">
         <v>422</v>
       </c>
-      <c r="Y7" s="102" t="s">
+      <c r="Z7" s="102" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
@@ -36180,26 +36361,29 @@
       <c r="R8" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="T8" s="4">
+      <c r="S8" s="10">
+        <v>2</v>
+      </c>
+      <c r="U8" s="4">
         <v>5</v>
       </c>
-      <c r="U8" s="4">
-        <v>1</v>
-      </c>
       <c r="V8" s="4">
         <v>1</v>
       </c>
       <c r="W8" s="4">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4">
         <v>4369</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -36251,26 +36435,29 @@
       <c r="R9" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="T9" s="10">
+      <c r="S9" s="10">
+        <v>9</v>
+      </c>
+      <c r="U9" s="10">
         <v>6</v>
       </c>
-      <c r="U9" s="10">
-        <v>1</v>
-      </c>
       <c r="V9" s="10">
         <v>1</v>
       </c>
       <c r="W9" s="10">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10">
         <v>139916</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="Y9" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Z9" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="100">
         <v>2</v>
       </c>
@@ -36322,26 +36509,29 @@
       <c r="R10" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="T10" s="104">
+      <c r="S10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="104">
         <v>7</v>
       </c>
-      <c r="U10" s="105">
-        <v>1</v>
-      </c>
       <c r="V10" s="105">
         <v>1</v>
       </c>
       <c r="W10" s="105">
+        <v>1</v>
+      </c>
+      <c r="X10" s="105">
         <v>139916</v>
       </c>
-      <c r="X10" s="105" t="s">
+      <c r="Y10" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="Y10" s="106" t="s">
+      <c r="Z10" s="106" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="104">
         <v>2</v>
       </c>
@@ -36393,26 +36583,29 @@
       <c r="R11" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="T11" s="122">
+      <c r="S11" s="10">
         <v>8</v>
       </c>
-      <c r="U11" s="123">
+      <c r="U11" s="122">
+        <v>8</v>
+      </c>
+      <c r="V11" s="123">
         <v>2</v>
       </c>
-      <c r="V11" s="123">
-        <v>1</v>
-      </c>
       <c r="W11" s="123">
+        <v>1</v>
+      </c>
+      <c r="X11" s="123">
         <v>65634</v>
       </c>
-      <c r="X11" s="123" t="s">
+      <c r="Y11" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="Y11" s="124" t="s">
+      <c r="Z11" s="124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -36464,26 +36657,30 @@
       <c r="R12" s="108" t="s">
         <v>672</v>
       </c>
-      <c r="T12" s="125">
+      <c r="S12" s="107">
+        <v>7</v>
+      </c>
+      <c r="T12" s="137"/>
+      <c r="U12" s="125">
         <v>9</v>
       </c>
-      <c r="U12" s="126">
+      <c r="V12" s="126">
         <v>2</v>
       </c>
-      <c r="V12" s="126">
-        <v>1</v>
-      </c>
       <c r="W12" s="126">
+        <v>1</v>
+      </c>
+      <c r="X12" s="126">
         <v>2048</v>
       </c>
-      <c r="X12" s="126" t="s">
+      <c r="Y12" s="126" t="s">
         <v>418</v>
       </c>
-      <c r="Y12" s="127" t="s">
+      <c r="Z12" s="127" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>3</v>
       </c>
@@ -36535,26 +36732,30 @@
       <c r="R13" s="112" t="s">
         <v>672</v>
       </c>
-      <c r="T13" s="4">
+      <c r="S13" s="111">
+        <v>14</v>
+      </c>
+      <c r="T13" s="138"/>
+      <c r="U13" s="4">
         <v>10</v>
       </c>
-      <c r="U13" s="4">
+      <c r="V13" s="4">
         <v>2</v>
       </c>
-      <c r="V13" s="4">
-        <v>1</v>
-      </c>
       <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
         <v>2048</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>3</v>
       </c>
@@ -36606,26 +36807,30 @@
       <c r="R14" s="112" t="s">
         <v>673</v>
       </c>
-      <c r="T14" s="128">
+      <c r="S14" s="111">
+        <v>4</v>
+      </c>
+      <c r="T14" s="137"/>
+      <c r="U14" s="128">
         <v>11</v>
       </c>
-      <c r="U14" s="129">
+      <c r="V14" s="129">
         <v>2</v>
       </c>
-      <c r="V14" s="129">
-        <v>1</v>
-      </c>
       <c r="W14" s="129">
+        <v>1</v>
+      </c>
+      <c r="X14" s="129">
         <v>4369</v>
       </c>
-      <c r="X14" s="129" t="s">
+      <c r="Y14" s="129" t="s">
         <v>422</v>
       </c>
-      <c r="Y14" s="130" t="s">
+      <c r="Z14" s="130" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -36677,26 +36882,30 @@
       <c r="R15" s="112" t="s">
         <v>673</v>
       </c>
-      <c r="T15" s="4">
+      <c r="S15" s="111">
+        <v>11</v>
+      </c>
+      <c r="T15" s="138"/>
+      <c r="U15" s="4">
         <v>12</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <v>2</v>
       </c>
-      <c r="V15" s="4">
-        <v>1</v>
-      </c>
       <c r="W15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
         <v>4369</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>4</v>
       </c>
@@ -36748,26 +36957,30 @@
       <c r="R16" s="112" t="s">
         <v>674</v>
       </c>
-      <c r="T16" s="19">
+      <c r="S16" s="111">
+        <v>2</v>
+      </c>
+      <c r="T16" s="138"/>
+      <c r="U16" s="19">
         <v>13</v>
       </c>
-      <c r="U16" s="19">
+      <c r="V16" s="19">
         <v>2</v>
       </c>
-      <c r="V16" s="19">
-        <v>1</v>
-      </c>
       <c r="W16" s="19">
+        <v>1</v>
+      </c>
+      <c r="X16" s="19">
         <v>139916</v>
       </c>
-      <c r="X16" s="19" t="s">
+      <c r="Y16" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="Y16" s="19" t="s">
+      <c r="Z16" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -36819,26 +37032,30 @@
       <c r="R17" s="112" t="s">
         <v>674</v>
       </c>
-      <c r="T17" s="104">
+      <c r="S17" s="111">
+        <v>9</v>
+      </c>
+      <c r="T17" s="137"/>
+      <c r="U17" s="104">
         <v>14</v>
       </c>
-      <c r="U17" s="105">
+      <c r="V17" s="105">
         <v>2</v>
       </c>
-      <c r="V17" s="105">
-        <v>1</v>
-      </c>
       <c r="W17" s="105">
+        <v>1</v>
+      </c>
+      <c r="X17" s="105">
         <v>139916</v>
       </c>
-      <c r="X17" s="105" t="s">
+      <c r="Y17" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="Y17" s="106" t="s">
+      <c r="Z17" s="106" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="100">
         <v>6</v>
       </c>
@@ -36890,26 +37107,30 @@
       <c r="R18" s="112" t="s">
         <v>675</v>
       </c>
-      <c r="T18" s="4">
+      <c r="S18" s="111">
+        <v>1</v>
+      </c>
+      <c r="T18" s="138"/>
+      <c r="U18" s="4">
         <v>15</v>
       </c>
-      <c r="U18" s="4">
+      <c r="V18" s="4">
         <v>3</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>2</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>139916</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Z18" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>7</v>
       </c>
@@ -36961,26 +37182,30 @@
       <c r="R19" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="T19" s="4">
+      <c r="S19" s="109">
+        <v>8</v>
+      </c>
+      <c r="T19" s="138"/>
+      <c r="U19" s="4">
         <v>16</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="4">
         <v>3</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <v>2</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>139916</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="Z19" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>8</v>
       </c>
@@ -37032,26 +37257,29 @@
       <c r="R20" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="T20" s="4">
+      <c r="S20" s="4">
+        <v>6</v>
+      </c>
+      <c r="U20" s="4">
         <v>17</v>
       </c>
-      <c r="U20" s="4">
+      <c r="V20" s="4">
         <v>3</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <v>2</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>4369</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="Z20" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>9</v>
       </c>
@@ -37103,26 +37331,29 @@
       <c r="R21" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="T21" s="4">
+      <c r="S21" s="4">
+        <v>13</v>
+      </c>
+      <c r="U21" s="4">
         <v>18</v>
       </c>
-      <c r="U21" s="4">
+      <c r="V21" s="4">
         <v>3</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <v>2</v>
       </c>
-      <c r="W21" s="4">
+      <c r="X21" s="4">
         <v>4369</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Z21" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>10</v>
       </c>
@@ -37174,26 +37405,29 @@
       <c r="R22" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="T22" s="4">
+      <c r="S22" s="4">
+        <v>5</v>
+      </c>
+      <c r="U22" s="4">
         <v>19</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="4">
         <v>3</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>2</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>2048</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Z22" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>11</v>
       </c>
@@ -37245,26 +37479,29 @@
       <c r="R23" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="T23" s="4">
+      <c r="S23" s="4">
+        <v>12</v>
+      </c>
+      <c r="U23" s="4">
         <v>20</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="4">
         <v>3</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <v>2</v>
       </c>
-      <c r="W23" s="4">
+      <c r="X23" s="4">
         <v>2048</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Z23" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>12</v>
       </c>
@@ -37316,26 +37553,29 @@
       <c r="R24" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="T24" s="4">
+      <c r="S24" s="4">
+        <v>3</v>
+      </c>
+      <c r="U24" s="4">
         <v>21</v>
       </c>
-      <c r="U24" s="4">
+      <c r="V24" s="4">
         <v>3</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <v>2</v>
       </c>
-      <c r="W24" s="4">
+      <c r="X24" s="4">
         <v>65634</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="Z24" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>13</v>
       </c>
@@ -37387,26 +37627,29 @@
       <c r="R25" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="T25" s="4">
+      <c r="S25" s="4">
+        <v>10</v>
+      </c>
+      <c r="U25" s="4">
         <v>22</v>
       </c>
-      <c r="U25" s="4">
+      <c r="V25" s="4">
         <v>4</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <v>2</v>
       </c>
-      <c r="W25" s="4">
+      <c r="X25" s="4">
         <v>139916</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="Z25" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>14</v>
       </c>
@@ -37458,26 +37701,29 @@
       <c r="R26" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="T26" s="4">
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
         <v>23</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="4">
         <v>4</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="4">
         <v>2</v>
       </c>
-      <c r="W26" s="4">
+      <c r="X26" s="4">
         <v>139916</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Z26" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>15</v>
       </c>
@@ -37529,26 +37775,29 @@
       <c r="R27" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="T27" s="4">
+      <c r="S27" s="4">
+        <v>8</v>
+      </c>
+      <c r="U27" s="4">
         <v>24</v>
       </c>
-      <c r="U27" s="4">
+      <c r="V27" s="4">
         <v>4</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W27" s="4">
         <v>2</v>
       </c>
-      <c r="W27" s="4">
+      <c r="X27" s="4">
         <v>4369</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="L28" s="4">
         <v>13</v>
       </c>
@@ -37570,26 +37819,29 @@
       <c r="R28" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="T28" s="4">
+      <c r="S28" s="4">
+        <v>16</v>
+      </c>
+      <c r="U28" s="4">
         <v>25</v>
       </c>
-      <c r="U28" s="4">
+      <c r="V28" s="4">
         <v>4</v>
       </c>
-      <c r="V28" s="4">
+      <c r="W28" s="4">
         <v>2</v>
       </c>
-      <c r="W28" s="4">
+      <c r="X28" s="4">
         <v>4369</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="Z28" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="L29" s="4">
         <v>13</v>
       </c>
@@ -37611,26 +37863,29 @@
       <c r="R29" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="T29" s="4">
+      <c r="S29" s="4">
+        <v>23</v>
+      </c>
+      <c r="U29" s="4">
         <v>26</v>
       </c>
-      <c r="U29" s="4">
+      <c r="V29" s="4">
         <v>4</v>
       </c>
-      <c r="V29" s="4">
+      <c r="W29" s="4">
         <v>2</v>
       </c>
-      <c r="W29" s="4">
+      <c r="X29" s="4">
         <v>2048</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Z29" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="L30" s="4">
         <v>14</v>
       </c>
@@ -37652,26 +37907,29 @@
       <c r="R30" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="T30" s="4">
+      <c r="S30" s="4">
+        <v>18</v>
+      </c>
+      <c r="U30" s="4">
         <v>27</v>
       </c>
-      <c r="U30" s="4">
+      <c r="V30" s="4">
         <v>4</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>2</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <v>2048</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Z30" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -37696,26 +37954,29 @@
       <c r="R31" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="T31" s="4">
+      <c r="S31" s="4">
+        <v>25</v>
+      </c>
+      <c r="U31" s="4">
         <v>28</v>
       </c>
-      <c r="U31" s="4">
+      <c r="V31" s="4">
         <v>4</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4">
         <v>2</v>
       </c>
-      <c r="W31" s="4">
+      <c r="X31" s="4">
         <v>65634</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="Z31" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="132" t="s">
         <v>707</v>
       </c>
@@ -37743,8 +38004,12 @@
       <c r="R32" s="108" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="107">
+        <v>20</v>
+      </c>
+      <c r="T32" s="138"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
         <v>705</v>
       </c>
@@ -37772,8 +38037,12 @@
       <c r="R33" s="110" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="109">
+        <v>27</v>
+      </c>
+      <c r="T33" s="138"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>229</v>
       </c>
@@ -37818,8 +38087,11 @@
       <c r="R34" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>1</v>
       </c>
@@ -37868,8 +38140,11 @@
       <c r="R35" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>1</v>
       </c>
@@ -37918,8 +38193,11 @@
       <c r="R36" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>1</v>
       </c>
@@ -37968,8 +38246,11 @@
       <c r="R37" s="4" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>1</v>
       </c>
@@ -38018,8 +38299,11 @@
       <c r="R38" s="4" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -38068,8 +38352,11 @@
       <c r="R39" s="4" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>1</v>
       </c>
@@ -38118,8 +38405,11 @@
       <c r="R40" s="4" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>1</v>
       </c>
@@ -38168,8 +38458,11 @@
       <c r="R41" s="4" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>1</v>
       </c>
@@ -38218,8 +38511,11 @@
       <c r="R42" s="4" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>1</v>
       </c>
@@ -38268,8 +38564,11 @@
       <c r="R43" s="4" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>1</v>
       </c>
@@ -38318,8 +38617,11 @@
       <c r="R44" s="4" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>1</v>
       </c>
@@ -38368,8 +38670,11 @@
       <c r="R45" s="4" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>1</v>
       </c>
@@ -38418,8 +38723,11 @@
       <c r="R46" s="4" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>2</v>
       </c>
@@ -38468,8 +38776,11 @@
       <c r="R47" s="4" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>2</v>
       </c>
@@ -38518,8 +38829,11 @@
       <c r="R48" s="4" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>2</v>
       </c>
@@ -38568,8 +38882,11 @@
       <c r="R49" s="4" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>2</v>
       </c>
@@ -38618,8 +38935,11 @@
       <c r="R50" s="4" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>2</v>
       </c>
@@ -38668,8 +38988,11 @@
       <c r="R51" s="4" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>2</v>
       </c>
@@ -38698,7 +39021,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>2</v>
       </c>
@@ -38727,7 +39050,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>2</v>
       </c>
@@ -38756,7 +39079,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>2</v>
       </c>
@@ -38783,7 +39106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>2</v>
       </c>
@@ -38810,7 +39133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>2</v>
       </c>
@@ -38837,7 +39160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>2</v>
       </c>
@@ -38864,7 +39187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>229</v>
       </c>
@@ -38887,7 +39210,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>1</v>
       </c>
